--- a/full/sliding_window_results_window_11.xlsx
+++ b/full/sliding_window_results_window_11.xlsx
@@ -468,13 +468,13 @@
         <v>36.3</v>
       </c>
       <c r="C2" t="n">
-        <v>37.30923936396341</v>
+        <v>37.47698029568571</v>
       </c>
       <c r="D2" t="n">
-        <v>1.009239363963417</v>
+        <v>1.176980295685709</v>
       </c>
       <c r="E2" t="n">
-        <v>1.018564093773282</v>
+        <v>1.385282616432419</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>38.5</v>
       </c>
       <c r="C3" t="n">
-        <v>38.82817209216822</v>
+        <v>38.6046395684577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3281720921682236</v>
+        <v>0.1046395684576993</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1076969220780691</v>
+        <v>0.01094943928701353</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>40.1</v>
       </c>
       <c r="C4" t="n">
-        <v>40.42261416697526</v>
+        <v>40.4748118260151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3226141669752636</v>
+        <v>0.3748118260150974</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1040799007331432</v>
+        <v>0.1404839049207717</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>41.5</v>
       </c>
       <c r="C5" t="n">
-        <v>42.32888254628926</v>
+        <v>42.40617245216514</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8288825462892646</v>
+        <v>0.9061724521651371</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6870462755429749</v>
+        <v>0.8211485130629776</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>43.7</v>
       </c>
       <c r="C6" t="n">
-        <v>45.47652362654624</v>
+        <v>45.25909356959257</v>
       </c>
       <c r="D6" t="n">
-        <v>1.776523626546236</v>
+        <v>1.559093569592562</v>
       </c>
       <c r="E6" t="n">
-        <v>3.156036195676991</v>
+        <v>2.430772758744878</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>48.1</v>
       </c>
       <c r="C7" t="n">
-        <v>48.54046838884675</v>
+        <v>48.85469871818454</v>
       </c>
       <c r="D7" t="n">
-        <v>0.440468388846746</v>
+        <v>0.7546987181845353</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1940124015732482</v>
+        <v>0.5695701552293806</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>54.34726399494367</v>
+        <v>54.41797443293799</v>
       </c>
       <c r="D8" t="n">
-        <v>1.347263994943667</v>
+        <v>1.417974432937989</v>
       </c>
       <c r="E8" t="n">
-        <v>1.815120272071569</v>
+        <v>2.010651492465811</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>56.1</v>
       </c>
       <c r="C9" t="n">
-        <v>57.68047481958563</v>
+        <v>57.77205402741657</v>
       </c>
       <c r="D9" t="n">
-        <v>1.580474819585625</v>
+        <v>1.672054027416571</v>
       </c>
       <c r="E9" t="n">
-        <v>2.497900655344214</v>
+        <v>2.795764670599977</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>61.52072023116115</v>
+        <v>61.63990758175915</v>
       </c>
       <c r="D10" t="n">
-        <v>1.52072023116115</v>
+        <v>1.639907581759147</v>
       </c>
       <c r="E10" t="n">
-        <v>2.312590021462821</v>
+        <v>2.689296876711132</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>63.9</v>
       </c>
       <c r="C11" t="n">
-        <v>65.33874792062022</v>
+        <v>65.46091871238387</v>
       </c>
       <c r="D11" t="n">
-        <v>1.438747920620223</v>
+        <v>1.560918712383874</v>
       </c>
       <c r="E11" t="n">
-        <v>2.069995579089015</v>
+        <v>2.43646722667013</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>73.09589250088356</v>
+        <v>73.28307903745383</v>
       </c>
       <c r="D12" t="n">
-        <v>2.495892500883571</v>
+        <v>2.683079037453837</v>
       </c>
       <c r="E12" t="n">
-        <v>6.229479375966845</v>
+        <v>7.198913121224207</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>83.98985611208624</v>
+        <v>84.22011455634703</v>
       </c>
       <c r="D13" t="n">
-        <v>3.089856112086238</v>
+        <v>3.320114556347022</v>
       </c>
       <c r="E13" t="n">
-        <v>9.547210793396683</v>
+        <v>11.02316066726738</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>92.5892949888699</v>
+        <v>92.82606283451136</v>
       </c>
       <c r="D14" t="n">
-        <v>3.489294988869901</v>
+        <v>3.726062834511367</v>
       </c>
       <c r="E14" t="n">
-        <v>12.1751795193526</v>
+        <v>13.88354424672688</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>95</v>
       </c>
       <c r="C15" t="n">
-        <v>98.45292410498031</v>
+        <v>98.71371892588054</v>
       </c>
       <c r="D15" t="n">
-        <v>3.452924104980312</v>
+        <v>3.713718925880542</v>
       </c>
       <c r="E15" t="n">
-        <v>11.92268487475409</v>
+        <v>13.79170826044333</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>98.8</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3297589457105</v>
+        <v>102.6185023804423</v>
       </c>
       <c r="D16" t="n">
-        <v>3.52975894571054</v>
+        <v>3.818502380442283</v>
       </c>
       <c r="E16" t="n">
-        <v>12.45919821482359</v>
+        <v>14.58096042944338</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>103.3</v>
       </c>
       <c r="C17" t="n">
-        <v>105.8453196901931</v>
+        <v>106.0360320394291</v>
       </c>
       <c r="D17" t="n">
-        <v>2.545319690193068</v>
+        <v>2.736032039429062</v>
       </c>
       <c r="E17" t="n">
-        <v>6.478652325284536</v>
+        <v>7.485871320782355</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>107</v>
       </c>
       <c r="C18" t="n">
-        <v>109.2352393258379</v>
+        <v>109.4038180144446</v>
       </c>
       <c r="D18" t="n">
-        <v>2.235239325837938</v>
+        <v>2.40381801444461</v>
       </c>
       <c r="E18" t="n">
-        <v>4.996294843772439</v>
+        <v>5.778341046568428</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>108.7</v>
       </c>
       <c r="C19" t="n">
-        <v>111.4143191338137</v>
+        <v>111.5925803746169</v>
       </c>
       <c r="D19" t="n">
-        <v>2.71431913381366</v>
+        <v>2.892580374616898</v>
       </c>
       <c r="E19" t="n">
-        <v>7.367528360186939</v>
+        <v>8.367021223618835</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>112.7</v>
       </c>
       <c r="C20" t="n">
-        <v>114.9916397492909</v>
+        <v>115.1346583784398</v>
       </c>
       <c r="D20" t="n">
-        <v>2.291639749290866</v>
+        <v>2.434658378439821</v>
       </c>
       <c r="E20" t="n">
-        <v>5.251612740529902</v>
+        <v>5.927561419707216</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>117.2</v>
       </c>
       <c r="C21" t="n">
-        <v>119.2218997302522</v>
+        <v>119.3455562651062</v>
       </c>
       <c r="D21" t="n">
-        <v>2.021899730252173</v>
+        <v>2.145556265106237</v>
       </c>
       <c r="E21" t="n">
-        <v>4.088078519193809</v>
+        <v>4.603411686736623</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>38.45925143301808</v>
+        <v>41.04137399127</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>94.47896188460678</v>
+        <v>107.9308810766431</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>4.723948094230339</v>
+        <v>5.396544053832157</v>
       </c>
     </row>
   </sheetData>
